--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_DiversifiedG&O.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_DiversifiedG&O.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -30,6 +30,12 @@
     <t xml:space="preserve">Within 3 miles of HFC production facility</t>
   </si>
   <si>
+    <t xml:space="preserve">Within 5 miles of HFC production facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 10 miles of HFC production facility</t>
+  </si>
+  <si>
     <t xml:space="preserve">% White</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">Within 3 mile of HFC production facility SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 5 mile of HFC production facility SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 10 mile of HFC production facility SD</t>
   </si>
 </sst>
 </file>
@@ -414,10 +426,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>84</v>
@@ -431,10 +449,16 @@
       <c r="E2" t="n">
         <v>97</v>
       </c>
+      <c r="F2" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>7.6</v>
@@ -448,10 +472,16 @@
       <c r="E3" t="n">
         <v>0.29</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>8.2</v>
@@ -465,10 +495,16 @@
       <c r="E4" t="n">
         <v>2.7</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
@@ -482,10 +518,16 @@
       <c r="E5" t="n">
         <v>0.91</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>67</v>
@@ -499,10 +541,16 @@
       <c r="E6" t="n">
         <v>47</v>
       </c>
+      <c r="F6" t="n">
+        <v>44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>6.8</v>
@@ -516,10 +564,16 @@
       <c r="E7" t="n">
         <v>11</v>
       </c>
+      <c r="F7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>5.1</v>
@@ -533,39 +587,57 @@
       <c r="E8" t="n">
         <v>7.4</v>
       </c>
+      <c r="F8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="C10" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="D10" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -587,21 +659,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>19</v>
@@ -615,10 +693,16 @@
       <c r="E2" t="n">
         <v>3.2</v>
       </c>
+      <c r="F2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -632,10 +716,16 @@
       <c r="E3" t="n">
         <v>0.67</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -649,10 +739,16 @@
       <c r="E4" t="n">
         <v>2.8</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>15</v>
@@ -666,10 +762,16 @@
       <c r="E5" t="n">
         <v>1.1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>28</v>
@@ -683,10 +785,16 @@
       <c r="E6" t="n">
         <v>12</v>
       </c>
+      <c r="F6" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>7.6</v>
@@ -700,10 +808,16 @@
       <c r="E7" t="n">
         <v>9.1</v>
       </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>6.4</v>
@@ -717,39 +831,57 @@
       <c r="E8" t="n">
         <v>5.4</v>
       </c>
+      <c r="F8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="C9" t="n">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>0.14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.078</v>
+        <v>0.066</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.012</v>
+        <v>0.000000000000000028</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00000000000000002</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.027</v>
       </c>
     </row>
   </sheetData>

--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_DiversifiedG&O.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_DiversifiedG&O.xlsx
@@ -443,17 +443,17 @@
       <c r="C2" t="n">
         <v>95</v>
       </c>
-      <c r="D2" t="n">
-        <v>99</v>
-      </c>
-      <c r="E2" t="n">
-        <v>97</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90</v>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
@@ -466,17 +466,17 @@
       <c r="C3" t="n">
         <v>2.4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.3</v>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
@@ -489,17 +489,17 @@
       <c r="C4" t="n">
         <v>2.5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.9</v>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
@@ -512,17 +512,17 @@
       <c r="C5" t="n">
         <v>1.4</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.89</v>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
@@ -535,17 +535,17 @@
       <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
-        <v>48</v>
-      </c>
-      <c r="E6" t="n">
-        <v>47</v>
-      </c>
-      <c r="F6" t="n">
-        <v>44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>48</v>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
@@ -558,17 +558,17 @@
       <c r="C7" t="n">
         <v>9.3</v>
       </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9.1</v>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8">
@@ -581,17 +581,17 @@
       <c r="C8" t="n">
         <v>6.6</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.2</v>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
@@ -604,17 +604,17 @@
       <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
-        <v>30</v>
-      </c>
-      <c r="E9" t="n">
-        <v>30</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" t="n">
-        <v>31</v>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10">
@@ -627,17 +627,17 @@
       <c r="C10" t="n">
         <v>0.32</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.39</v>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000000000000000028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_DiversifiedG&O.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_DiversifiedG&O.xlsx
@@ -443,17 +443,17 @@
       <c r="C2" t="n">
         <v>95</v>
       </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
+      <c r="D2" t="n">
+        <v>99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -466,17 +466,17 @@
       <c r="C3" t="n">
         <v>2.4</v>
       </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="4">
@@ -489,17 +489,17 @@
       <c r="C4" t="n">
         <v>2.5</v>
       </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+      <c r="D4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -512,17 +512,17 @@
       <c r="C5" t="n">
         <v>1.4</v>
       </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
+      <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -535,17 +535,17 @@
       <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
+      <c r="D6" t="n">
+        <v>48</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -558,17 +558,17 @@
       <c r="C7" t="n">
         <v>9.3</v>
       </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -581,17 +581,17 @@
       <c r="C8" t="n">
         <v>6.6</v>
       </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
+      <c r="D8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="9">
@@ -604,17 +604,17 @@
       <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -627,17 +627,17 @@
       <c r="C10" t="n">
         <v>0.32</v>
       </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
+      <c r="D10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="8">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="9">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.000000000000000028</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.000000000000000019</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
     </row>
   </sheetData>
